--- a/xlsx/繼承系統表.xlsx
+++ b/xlsx/繼承系統表.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-09-06</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-10-05</t>
         </is>
       </c>
     </row>

--- a/xlsx/繼承系統表.xlsx
+++ b/xlsx/繼承系統表.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,56 +452,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="1" customWidth="1" min="1" max="1"/>
     <col width="42" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="1" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="4" customWidth="1" min="11" max="11"/>
+    <col width="4" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="4" customWidth="1" min="19" max="19"/>
+    <col width="4" customWidth="1" min="20" max="20"/>
+    <col width="13" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="13" customWidth="1" min="25" max="25"/>
+    <col width="14" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="27" max="27"/>
+    <col width="4" customWidth="1" min="28" max="28"/>
+    <col width="13" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="13" customWidth="1" min="33" max="33"/>
+    <col width="14" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="36" max="36"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>陳奕帆的繼承系統表</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>陳奕帆</t>
+          <t>A的繼承系統表</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="3" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>被繼承人</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
+      <c r="AG2" s="3" t="inlineStr"/>
+      <c r="AH2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
-      </c>
+      <c r="AG3" s="3" t="n"/>
+      <c r="AH3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="E4" s="3" t="inlineStr">
+      <c r="AG4" s="3" t="inlineStr">
         <is>
           <t>無拋棄繼承</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>R124697411</t>
-        </is>
-      </c>
+      <c r="AH4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
@@ -558,7 +574,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AG2:AG3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
